--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,7 +428,7 @@
     <t>Location.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -503,7 +503,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -546,7 +546,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1169,7 +1169,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1298,7 +1298,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Location|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -457,6 +457,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Location.meta.security</t>
   </si>
   <si>
@@ -622,7 +625,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -729,7 +732,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -802,7 +805,7 @@
     <t>Location.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -854,7 +857,7 @@
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
   </si>
   <si>
     <t>Location.name</t>
@@ -936,7 +939,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>.code</t>
@@ -945,7 +948,7 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -961,7 +964,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -992,7 +995,7 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -1095,7 +1098,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1123,7 +1126,7 @@
     <t>positionRoom</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1640,7 +1643,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1655,7 +1658,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2801,7 +2804,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2863,10 +2866,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2889,16 +2892,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2924,13 +2927,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2948,7 +2951,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2971,10 +2974,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2997,16 +3000,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3032,13 +3035,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3056,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3079,10 +3082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,13 +3111,13 @@
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3164,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3187,10 +3190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3213,16 +3216,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3248,13 +3251,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3272,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3295,14 +3298,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3321,16 +3324,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3380,7 +3383,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3395,7 +3398,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3403,14 +3406,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3429,16 +3432,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3488,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3503,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3540,10 +3543,10 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3592,7 +3595,7 @@
         <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3615,13 +3618,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3643,13 +3646,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3700,7 +3703,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3709,7 +3712,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>114</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3752,16 +3755,16 @@
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3810,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3825,7 +3828,7 @@
         <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3833,10 +3836,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3859,17 +3862,17 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3918,7 +3921,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3933,18 +3936,18 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4047,10 +4050,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4155,10 +4158,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4181,19 +4184,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4218,13 +4221,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4242,7 +4245,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4257,7 +4260,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4291,19 +4294,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4328,11 +4331,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4350,7 +4353,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4365,7 +4368,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4373,10 +4376,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4402,16 +4405,16 @@
         <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4424,7 +4427,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4460,7 +4463,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4478,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4512,13 +4515,13 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4532,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4568,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4583,7 +4586,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4591,10 +4594,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4617,13 +4620,13 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4674,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4689,7 +4692,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4697,10 +4700,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4723,16 +4726,16 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4782,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4797,7 +4800,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4831,13 +4834,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4864,13 +4867,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4888,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4903,18 +4906,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,13 +4940,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4970,13 +4973,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4994,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5012,15 +5015,15 @@
         <v>103</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5046,13 +5049,13 @@
         <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5102,7 +5105,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5117,7 +5120,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5125,10 +5128,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5154,16 +5157,16 @@
         <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5212,7 +5215,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5227,7 +5230,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5235,10 +5238,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5264,14 +5267,14 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5323,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5335,7 +5338,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5343,10 +5346,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5369,19 +5372,19 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5406,13 +5409,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5430,7 +5433,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5445,18 +5448,18 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5479,13 +5482,13 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5512,11 +5515,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5534,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5549,18 +5552,18 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5583,13 +5586,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5640,7 +5643,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5655,7 +5658,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5663,10 +5666,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5689,19 +5692,19 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5750,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5765,7 +5768,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5773,10 +5776,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5799,17 +5802,17 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5834,11 +5837,11 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5856,7 +5859,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5871,18 +5874,18 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5905,17 +5908,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5964,7 +5967,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5979,7 +5982,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5987,10 +5990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6093,10 +6096,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6201,14 +6204,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6230,16 +6233,16 @@
         <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6288,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6306,7 @@
         <v>114</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6311,10 +6314,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6337,13 +6340,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6394,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>85</v>
@@ -6409,7 +6412,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6417,10 +6420,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6443,13 +6446,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6500,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -6515,7 +6518,7 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6523,10 +6526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6549,13 +6552,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6606,7 +6609,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6621,7 +6624,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6655,19 +6658,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6716,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6731,7 +6734,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6739,10 +6742,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6765,17 +6768,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6824,7 +6827,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6839,7 +6842,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6953,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7061,13 +7064,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7089,13 +7092,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7169,10 +7172,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7198,13 +7201,13 @@
         <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7254,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7263,13 +7266,13 @@
         <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7277,10 +7280,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7306,13 +7309,13 @@
         <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7338,13 +7341,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7362,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7380,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7411,16 +7414,16 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7470,7 +7473,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7485,7 +7488,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7493,10 +7496,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7522,13 +7525,13 @@
         <v>99</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7578,7 +7581,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7593,7 +7596,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7601,10 +7604,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7627,16 +7630,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7686,7 +7689,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7701,7 +7704,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7709,10 +7712,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7815,10 +7818,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7923,14 +7926,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7952,16 +7955,16 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8010,7 +8013,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8025,7 +8028,7 @@
         <v>114</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8033,10 +8036,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8059,13 +8062,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8092,13 +8095,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8116,7 +8119,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8134,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8139,10 +8142,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8165,13 +8168,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8222,7 +8225,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8237,7 +8240,7 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8271,13 +8274,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8328,7 +8331,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8343,7 +8346,7 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8351,10 +8354,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8377,13 +8380,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8434,7 +8437,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8449,7 +8452,7 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8457,10 +8460,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8486,10 +8489,10 @@
         <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8540,7 +8543,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8563,10 +8566,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8589,17 +8592,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8648,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>French profile of Location.
-Profil français de la ressource Location</t>
+    <t xml:space="preserve">Ressource Location adaptée au contexte français. 
+Cette ressource est utilisée pour représenter un lieu physique, telle qu'une salle d'examen, 
+un lit d'hôpital ou une chambre d'hôpital. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -264,7 +265,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-location-type-chambre:Location Type Chambre {extension('http://fhir.fr/StructureDefinition/fr-core-location-type-chambre').exists() implies type.coding.where(code = 'CHAMB').exists()}inv-location-type-lit:Location Type Lit {extension('http://fhir.fr/StructureDefinition/fr-core-location-position-lit').exists() implies type.coding.where(code = 'LIT').exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -619,26 +620,42 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Location.extension:usePeriod</t>
-  </si>
-  <si>
-    <t>usePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period|2.2.0-ballot}
+    <t>Location.extension:typeChambre</t>
+  </si>
+  <si>
+    <t>typeChambre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre|2.2.0-ballot}
 </t>
   </si>
   <si>
-    <t>FR Core Use Period Extension</t>
-  </si>
-  <si>
-    <t>Extension permettant d'indiquer la période d'utilisation d'une Location.</t>
+    <t>FR Core Location Extension - Type de chambre</t>
+  </si>
+  <si>
+    <t>Type de chambre</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Location.extension:positionLit</t>
+  </si>
+  <si>
+    <t>positionLit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Location Extension - Position du lit</t>
+  </si>
+  <si>
+    <t>Position du lit dans la chambre</t>
+  </si>
+  <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
@@ -662,7 +679,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant fonctionnel du lieu. Il est recommandé de remplir ce champs pour faciliter l'identification des ressources.</t>
+    <t>Unique code or number identifying the location to its users</t>
   </si>
   <si>
     <t>Unique code or number identifying the location to its users.</t>
@@ -677,297 +694,157 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Location.identifier.id</t>
-  </si>
-  <si>
-    <t>Location.identifier.extension</t>
-  </si>
-  <si>
-    <t>Location.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.type</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans. Does not need to be unique.</t>
+  </si>
+  <si>
+    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>Location.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the location was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Location.description</t>
+  </si>
+  <si>
+    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the Location, which helps in finding or referencing the place.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct location has been identified.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Location.mode</t>
+  </si>
+  <si>
+    <t>instance | kind</t>
+  </si>
+  <si>
+    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+  </si>
+  <si>
+    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
+  </si>
+  <si>
+    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC].determinerCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Location.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type|2.2.0-ballot</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Location.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Location.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Location.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>Type of function performed</t>
+  </si>
+  <si>
+    <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
+    <t>Contact details of the location</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
-  </si>
-  <si>
-    <t>Location.name</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans. Does not need to be unique.</t>
-  </si>
-  <si>
-    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>Location.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the location was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Location.description</t>
-  </si>
-  <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the Location, which helps in finding or referencing the place.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct location has been identified.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
-  </si>
-  <si>
-    <t>Location.mode</t>
-  </si>
-  <si>
-    <t>instance | kind</t>
-  </si>
-  <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
-  </si>
-  <si>
-    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
-  </si>
-  <si>
-    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC].determinerCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Location.type</t>
-  </si>
-  <si>
-    <t>Type of function performed</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
-</t>
-  </si>
-  <si>
     <t>Physical location</t>
   </si>
   <si>
@@ -995,7 +872,10 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot</t>
+    <t>Physical form of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -1080,6 +960,10 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
     <t>Organization responsible for provisioning and upkeep</t>
   </si>
   <si>
@@ -1098,7 +982,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1112,106 +996,6 @@
   </si>
   <si>
     <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>Location.partOf.id</t>
-  </si>
-  <si>
-    <t>Location.partOf.extension</t>
-  </si>
-  <si>
-    <t>Location.partOf.extension:positionRoom</t>
-  </si>
-  <si>
-    <t>positionRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Location Part Of Position Room Extension</t>
-  </si>
-  <si>
-    <t>Position du lit dans la chambre.
-Position of the bed in the bedroom</t>
-  </si>
-  <si>
-    <t>Location.partOf.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Location.partOf.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Location.partOf.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Location.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Location.hoursOfOperation</t>
@@ -1624,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL65"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1635,7 +1419,7 @@
   <cols>
     <col min="1" max="1" width="36.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1643,7 +1427,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1652,13 +1436,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1668,7 +1452,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.43359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3729,43 +3513,41 @@
         <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3813,7 +3595,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3822,13 +3604,13 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3843,7 +3625,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3856,23 +3638,25 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3921,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3933,21 +3717,21 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3958,7 +3742,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3967,19 +3751,21 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4027,66 +3813,64 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4111,57 +3895,57 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4178,26 +3962,22 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4221,13 +4001,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4245,7 +4025,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4260,18 +4040,18 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4279,7 +4059,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
@@ -4294,20 +4074,18 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4331,29 +4109,31 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4368,7 +4148,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4376,10 +4156,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4387,10 +4167,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4399,22 +4179,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4427,7 +4207,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4463,13 +4243,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4478,7 +4258,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4497,7 +4277,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4520,10 +4300,10 @@
       <c r="M27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4535,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4571,7 +4351,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4586,7 +4366,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4594,10 +4374,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4620,16 +4400,20 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4653,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4692,10 +4476,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4714,7 +4498,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4734,9 +4518,7 @@
       <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4761,13 +4543,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4785,13 +4565,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4800,18 +4580,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4822,19 +4602,19 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>261</v>
@@ -4867,13 +4647,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4891,13 +4671,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4906,18 +4686,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,19 +4717,23 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4973,13 +4757,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4997,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5012,18 +4796,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5046,18 +4830,18 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5081,13 +4865,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5105,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5120,18 +4904,18 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5142,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5154,19 +4938,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5215,13 +4997,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5230,7 +5012,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5238,10 +5020,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5261,21 +5043,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5323,7 +5103,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5335,10 +5115,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5346,21 +5126,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5369,23 +5149,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5409,13 +5187,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5433,65 +5211,69 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5515,11 +5297,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5537,7 +5321,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5549,21 +5333,21 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5571,10 +5355,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5586,13 +5370,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5643,13 +5427,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5658,7 +5442,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5666,10 +5450,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5677,7 +5461,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5692,20 +5476,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5753,10 +5533,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5768,7 +5548,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5776,10 +5556,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5799,21 +5579,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5837,11 +5615,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5859,7 +5639,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5874,18 +5654,18 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5905,20 +5685,22 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5967,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5982,7 +5764,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5990,10 +5772,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6016,16 +5798,18 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6073,7 +5857,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6085,10 +5869,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6096,14 +5880,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6122,16 +5906,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6181,7 +5965,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6193,10 +5977,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6204,46 +5988,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6291,22 +6071,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6314,21 +6094,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6340,15 +6120,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6397,22 +6179,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6420,42 +6202,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6503,22 +6289,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>189</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6526,10 +6312,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6540,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6552,13 +6338,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6585,13 +6371,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6609,13 +6395,13 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
@@ -6624,7 +6410,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6632,10 +6418,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6655,23 +6441,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6719,7 +6501,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6516,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6742,10 +6524,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6768,18 +6550,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6827,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6842,7 +6622,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6850,10 +6630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6876,13 +6656,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6933,7 +6713,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6945,10 +6725,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6956,21 +6736,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6982,17 +6762,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7029,31 +6807,31 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>103</v>
@@ -7064,14 +6842,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7080,7 +6856,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7092,16 +6868,18 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7149,7 +6927,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7161,1514 +6939,12 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL65" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -458,7 +458,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Location.meta.security</t>
@@ -626,7 +626,7 @@
     <t>typeChambre</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -646,7 +646,7 @@
     <t>positionLit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>.code</t>
@@ -1427,7 +1427,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1442,7 +1442,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.74609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-location.xlsx
+++ b/main/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
